--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -687,47 +687,47 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1199,8 +1199,8 @@
   </sheetPr>
   <dimension ref="A2:BQ36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1226,22 +1226,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
@@ -1279,12 +1279,12 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -1340,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="16"/>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="4"/>
@@ -1355,50 +1355,50 @@
       <c r="H8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29" t="s">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30" t="s">
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29" t="s">
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30" t="s">
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31" t="s">
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32" t="s">
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AN8" s="32"/>
+      <c r="AN8" s="31"/>
     </row>
     <row r="9" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
@@ -1538,16 +1538,16 @@
       <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>4</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>2</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>4</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>2</v>
       </c>
       <c r="G10" s="14">
@@ -1558,404 +1558,430 @@
       <c r="B11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>5</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>2</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>6</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="24">
+        <v>2</v>
+      </c>
       <c r="G11" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>6</v>
       </c>
-      <c r="D12" s="25">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="D12" s="24">
+        <v>2</v>
+      </c>
+      <c r="E12" s="24">
         <v>6</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>6</v>
       </c>
-      <c r="D13" s="25">
-        <v>7</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
         <v>6</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
       <c r="G13" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>6</v>
       </c>
-      <c r="D14" s="25">
-        <v>3</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
+        <v>5</v>
+      </c>
+      <c r="F14" s="24">
+        <v>2</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>6</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>3</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="24">
+        <v>7</v>
+      </c>
+      <c r="F15" s="24">
+        <v>2</v>
+      </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>8</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>5</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>10</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>5</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>6</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>12</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>3</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="24">
+        <v>9</v>
+      </c>
+      <c r="F18" s="24">
+        <v>3</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>7</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <v>2</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>5</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>10</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>3</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>15</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>2</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>16</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>3</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>16</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>1</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>18</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>3</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>18</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>2</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>16</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <v>5</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>18</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <v>2</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>20</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <v>2</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>21</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <v>1</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="14"/>
     </row>
     <row r="30" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <v>9</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>1</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="E30" s="24">
+        <v>9</v>
+      </c>
+      <c r="F30" s="24"/>
       <c r="G30" s="14"/>
     </row>
     <row r="31" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>10</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>1</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="14"/>
     </row>
     <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>22</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="24">
         <v>9</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:43" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>23</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>5</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:43" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <v>28</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24">
         <v>4</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:43" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="27">
+      <c r="C35" s="26">
         <v>4</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="26">
         <v>28</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="21"/>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
-      <c r="AJ36" s="21"/>
-      <c r="AK36" s="21"/>
-      <c r="AL36" s="21"/>
-      <c r="AM36" s="21"/>
-      <c r="AN36" s="21"/>
-      <c r="AO36" s="21"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
